--- a/Enseignants.xlsx
+++ b/Enseignants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\My-Github\Projet.NetCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9130AF8C-0F5C-42F9-9B1B-FB4259B61502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0BA728-DACF-480D-A12E-C630E4DD398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3D2B833-88E6-4740-B453-101317D2A0E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>nom</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>loubnaberamdan@gmail.com</t>
+  </si>
+  <si>
+    <t>fil_id</t>
   </si>
 </sst>
 </file>
@@ -225,16 +228,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,6 +319,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C5E3E61-2073-469E-94D0-E0FCD92D7DFA}" name="Tableau1" displayName="Tableau1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D14" xr:uid="{805ECD2C-6627-438B-99A6-B713A09B273E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{72634C3C-32D1-44D3-AB96-D1DB9EE3C895}" name="nom"/>
+    <tableColumn id="2" xr3:uid="{D388254A-DCC0-4044-BC44-AE70472F0B66}" name="prenom" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7A274375-31A1-4FC2-8AFC-ACA3F700DF79}" name="email" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{99543848-1055-4570-8B6C-BDB9D182A795}" name="fil_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31FE349-0B4B-40B1-84CC-A6B319C0ADB1}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +642,7 @@
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +652,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -576,8 +666,11 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -587,8 +680,11 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -598,19 +694,25 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -620,8 +722,11 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -631,8 +736,11 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -642,8 +750,11 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -653,9 +764,12 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -664,8 +778,11 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -675,8 +792,11 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -686,8 +806,11 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -697,8 +820,11 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -708,8 +834,14 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Enseignants.xlsx
+++ b/Enseignants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\My-Github\Projet.NetCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0BA728-DACF-480D-A12E-C630E4DD398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0858D-7DD8-4CB6-907D-776AA7F12F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3D2B833-88E6-4740-B453-101317D2A0E4}"/>
   </bookViews>
@@ -72,10 +72,6 @@
     <t>ATLAS</t>
   </si>
   <si>
-    <t xml:space="preserve">	_x000D_
-Abdelghafou</t>
-  </si>
-  <si>
     <t>abdelghafour.atlas@gmail.com</t>
   </si>
   <si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>fil_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	_x000D_
+Abdelghafour</t>
   </si>
 </sst>
 </file>
@@ -245,30 +245,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.79998168889431442"/>
@@ -308,6 +284,30 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -322,12 +322,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C5E3E61-2073-469E-94D0-E0FCD92D7DFA}" name="Tableau1" displayName="Tableau1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C5E3E61-2073-469E-94D0-E0FCD92D7DFA}" name="Tableau1" displayName="Tableau1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:D14" xr:uid="{805ECD2C-6627-438B-99A6-B713A09B273E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{72634C3C-32D1-44D3-AB96-D1DB9EE3C895}" name="nom"/>
-    <tableColumn id="2" xr3:uid="{D388254A-DCC0-4044-BC44-AE70472F0B66}" name="prenom" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7A274375-31A1-4FC2-8AFC-ACA3F700DF79}" name="email" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D388254A-DCC0-4044-BC44-AE70472F0B66}" name="prenom" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7A274375-31A1-4FC2-8AFC-ACA3F700DF79}" name="email" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{99543848-1055-4570-8B6C-BDB9D182A795}" name="fil_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -634,11 +634,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,15 +699,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -714,13 +715,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -728,13 +729,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -742,13 +743,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -756,27 +757,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -784,13 +785,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -798,27 +799,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -826,16 +827,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
